--- a/EJ2/Mediciones/Mediciones tp2 ej2 Zin LM833.xlsx
+++ b/EJ2/Mediciones/Mediciones tp2 ej2 Zin LM833.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Desktop\ITBA\5C TC\TP2\TP2\EJ2\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016D0CD2-2DEE-4050-91EC-B0FB24E66120}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41897141-B1B5-42FF-979D-A03E6467FE72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{725EB9F4-FAC7-4A66-873D-D6BC0385B064}"/>
   </bookViews>
@@ -50,10 +50,10 @@
     <t>Zin (Ohm)</t>
   </si>
   <si>
-    <t>Frec (KHz)</t>
+    <t>Vpp serie (mV)</t>
   </si>
   <si>
-    <t>Vpp serie (mV)</t>
+    <t>Frec (Hz)</t>
   </si>
 </sst>
 </file>
@@ -210,58 +210,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="114"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75</c:v>
+                  <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85</c:v>
+                  <c:v>85000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>130</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>250</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>500</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,58 +878,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="114"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75</c:v>
+                  <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85</c:v>
+                  <c:v>85000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>130</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>250</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>500</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2675,7 +2675,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2690,13 +2690,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>25</v>
+        <v>25000</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>45</v>
+        <v>45000</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>75</v>
+        <v>75000</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>85</v>
+        <v>85000</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>250</v>
+        <v>250000</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34" t="e">
-        <f t="shared" ref="E34:E65" si="3">((B34-C34)/1000)/D34</f>
+        <f t="shared" ref="E34:E60" si="3">((B34-C34)/1000)/D34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F34" t="e">

--- a/EJ2/Mediciones/Mediciones tp2 ej2 Zin LM833.xlsx
+++ b/EJ2/Mediciones/Mediciones tp2 ej2 Zin LM833.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Desktop\ITBA\5C TC\TP2\TP2\EJ2\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41897141-B1B5-42FF-979D-A03E6467FE72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B211EF1A-6D1D-483F-9444-7FF2EE93B6CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{725EB9F4-FAC7-4A66-873D-D6BC0385B064}"/>
   </bookViews>
@@ -205,62 +205,56 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$115</c:f>
+              <c:f>Sheet1!$A$2:$A$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60000</c:v>
+                  <c:v>85000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>130000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>250000</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
@@ -268,63 +262,63 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$115</c:f>
+              <c:f>Sheet1!$F$2:$F$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>3142857.1428571432</c:v>
+                  <c:v>1913043.4782608696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000000.0000000002</c:v>
+                  <c:v>1833333.3333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1913043.4782608696</c:v>
+                  <c:v>1833333.3333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1833333.3333333335</c:v>
+                  <c:v>1629629.6296296297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1833333.3333333335</c:v>
+                  <c:v>1375000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1629629.6296296297</c:v>
+                  <c:v>1157894.7368421054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1375000</c:v>
+                  <c:v>1100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1157894.7368421054</c:v>
+                  <c:v>880000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1100000</c:v>
+                  <c:v>586666.66666666674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>880000</c:v>
+                  <c:v>419047.61904761905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>586666.66666666674</c:v>
+                  <c:v>366666.66666666674</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>419047.61904761905</c:v>
+                  <c:v>338461.5384615385</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>366666.66666666674</c:v>
+                  <c:v>252873.56321839083</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>338461.5384615385</c:v>
+                  <c:v>235294.11764705883</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>252873.56321839083</c:v>
+                  <c:v>230971.1286089239</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>235294.11764705883</c:v>
+                  <c:v>226221.07969151673</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>230971.1286089239</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>226221.07969151673</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -579,12 +573,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -873,62 +861,56 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$115</c:f>
+              <c:f>Sheet1!$A$2:$A$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60000</c:v>
+                  <c:v>85000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>130000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>250000</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
@@ -936,56 +918,50 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$115</c:f>
+              <c:f>Sheet1!$G$2:$G$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>-4</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-20</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-30</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-35</c:v>
+                  <c:v>-55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-40</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-55</c:v>
+                  <c:v>-65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-60</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-65</c:v>
+                  <c:v>-85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-75</c:v>
+                  <c:v>-90</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-85</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-90</c:v>
+                  <c:v>-112</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-112</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>-110</c:v>
                 </c:pt>
               </c:numCache>
@@ -2310,7 +2286,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2346,7 +2322,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2672,10 +2648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7BF33E-E9A6-4BD6-8C5E-94ECB4CA28FA}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2713,481 +2689,451 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="B2">
         <v>200</v>
       </c>
       <c r="C2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D2">
         <v>220000</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">((B2-C2)/1000)/D2</f>
-        <v>6.3636363636363632E-8</v>
+        <f t="shared" ref="E2:E31" si="0">((B2-C2)/1000)/D2</f>
+        <v>1.0454545454545455E-7</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F19" si="1">(B2/1000)/E2</f>
-        <v>3142857.1428571432</v>
+        <f t="shared" ref="F2:F17" si="1">(B2/1000)/E2</f>
+        <v>1913043.4782608696</v>
       </c>
       <c r="G2">
-        <v>-4</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
       <c r="C3">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D3">
         <v>220000</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>9.9999999999999995E-8</v>
+        <v>1.0909090909090909E-7</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>2000000.0000000002</v>
+        <v>1833333.3333333335</v>
       </c>
       <c r="G3">
-        <v>-9</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4">
         <v>220000</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1.0454545454545455E-7</v>
+        <v>1.0909090909090909E-7</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>1913043.4782608696</v>
+        <v>1833333.3333333335</v>
       </c>
       <c r="G4">
-        <v>-16</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
       <c r="C5">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D5">
         <v>220000</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.0909090909090909E-7</v>
+        <v>1.2272727272727272E-7</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>1833333.3333333335</v>
+        <v>1629629.6296296297</v>
       </c>
       <c r="G5">
-        <v>-20</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
       <c r="C6">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D6">
         <v>220000</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1.0909090909090909E-7</v>
+        <v>1.4545454545454545E-7</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>1833333.3333333335</v>
+        <v>1375000</v>
       </c>
       <c r="G6">
-        <v>-30</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B7">
         <v>200</v>
       </c>
       <c r="C7">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D7">
         <v>220000</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1.2272727272727272E-7</v>
+        <v>1.7272727272727272E-7</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1629629.6296296297</v>
+        <v>1157894.7368421054</v>
       </c>
       <c r="G7">
-        <v>-35</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="B8">
         <v>200</v>
       </c>
       <c r="C8">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D8">
         <v>220000</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>1.4545454545454545E-7</v>
+        <v>1.8181818181818183E-7</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1375000</v>
+        <v>1100000</v>
       </c>
       <c r="G8">
-        <v>-40</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="B9">
         <v>200</v>
       </c>
       <c r="C9">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D9">
         <v>220000</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1.7272727272727272E-7</v>
+        <v>2.2727272727272729E-7</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1157894.7368421054</v>
+        <v>880000</v>
       </c>
       <c r="G9">
-        <v>-55</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="B10">
         <v>200</v>
       </c>
       <c r="C10">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D10">
         <v>220000</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>1.8181818181818183E-7</v>
+        <v>3.409090909090909E-7</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1100000</v>
+        <v>586666.66666666674</v>
       </c>
       <c r="G10">
-        <v>-60</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="B11">
         <v>200</v>
       </c>
       <c r="C11">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="D11">
         <v>220000</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>2.2727272727272729E-7</v>
+        <v>4.7727272727272728E-7</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>880000</v>
+        <v>419047.61904761905</v>
       </c>
       <c r="G11">
-        <v>-65</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>60000</v>
+        <v>85000</v>
       </c>
       <c r="B12">
         <v>200</v>
       </c>
       <c r="C12">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>220000</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>3.409090909090909E-7</v>
+        <v>5.4545454545454538E-7</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>586666.66666666674</v>
+        <v>366666.66666666674</v>
       </c>
       <c r="G12">
-        <v>-75</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="B13">
         <v>200</v>
       </c>
       <c r="C13">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D13">
         <v>220000</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>4.7727272727272728E-7</v>
+        <v>5.9090909090909089E-7</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>419047.61904761905</v>
+        <v>338461.5384615385</v>
       </c>
       <c r="G13">
-        <v>-85</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>85000</v>
+        <v>130000</v>
       </c>
       <c r="B14">
         <v>200</v>
       </c>
       <c r="C14">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>220000</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>5.4545454545454538E-7</v>
+        <v>7.9090909090909088E-7</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>366666.66666666674</v>
+        <v>252873.56321839083</v>
       </c>
       <c r="G14">
-        <v>-90</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="B15">
         <v>200</v>
       </c>
       <c r="C15">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>220000</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>5.9090909090909089E-7</v>
+        <v>8.5000000000000001E-7</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>338461.5384615385</v>
+        <v>235294.11764705883</v>
       </c>
       <c r="G15">
-        <v>-100</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>130000</v>
+        <v>250000</v>
       </c>
       <c r="B16">
         <v>200</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="D16">
         <v>220000</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>7.9090909090909088E-7</v>
+        <v>8.6590909090909091E-7</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>252873.56321839083</v>
-      </c>
-      <c r="G16">
-        <v>-112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>230971.1286089239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="B17">
         <v>200</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="D17">
         <v>220000</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>8.5000000000000001E-7</v>
+        <v>8.8409090909090907E-7</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>235294.11764705883</v>
-      </c>
-      <c r="G17">
-        <v>-110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>250000</v>
-      </c>
+        <v>226221.07969151673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>200</v>
       </c>
-      <c r="C18">
-        <v>9.5</v>
-      </c>
       <c r="D18">
         <v>220000</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>8.6590909090909091E-7</v>
+        <v>9.0909090909090915E-7</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>230971.1286089239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>500000</v>
-      </c>
+        <f t="shared" ref="F18:F58" si="2">C18/E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>200</v>
       </c>
-      <c r="C19">
-        <v>5.5</v>
-      </c>
       <c r="D19">
         <v>220000</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>8.8409090909090907E-7</v>
+        <v>9.0909090909090915E-7</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>226221.07969151673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>200</v>
-      </c>
-      <c r="D20">
-        <v>220000</v>
-      </c>
-      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="e">
         <f t="shared" si="0"/>
-        <v>9.0909090909090915E-7</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ref="F20:F60" si="2">C20/E20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>200</v>
-      </c>
-      <c r="D21">
-        <v>220000</v>
-      </c>
-      <c r="E21">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="e">
         <f t="shared" si="0"/>
-        <v>9.0909090909090915E-7</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3197,7 +3143,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3207,7 +3153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3217,7 +3163,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3227,7 +3173,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3237,7 +3183,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3247,7 +3193,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3257,7 +3203,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3267,7 +3213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3277,7 +3223,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3287,9 +3233,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E32" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E32:E58" si="3">((B32-C32)/1000)/D32</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" t="e">
@@ -3299,7 +3245,7 @@
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" t="e">
@@ -3309,7 +3255,7 @@
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34" t="e">
-        <f t="shared" ref="E34:E60" si="3">((B34-C34)/1000)/D34</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F34" t="e">
@@ -3558,28 +3504,20 @@
       </c>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E59" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="F59" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F59:F104" si="4">20*LOG(C59/(B59/1000), 10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E60" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="F60" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="61" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F61" t="e">
-        <f t="shared" ref="F61:F106" si="4">20*LOG(C61/(B61/1000), 10)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3841,20 +3779,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F105" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F106" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G133">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G131">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
